--- a/Mancuso.xlsx
+++ b/Mancuso.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afons\OneDrive - Academia da Força Aérea\Ambiente de Trabalho\Finanças\WorkingFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Mancuso_Investments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2141FB-0A67-4E84-8FDD-3C1712CDC37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{9D2141FB-0A67-4E84-8FDD-3C1712CDC37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9A94785-0840-4E89-869A-B1F3993DEAE9}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="People" sheetId="2" r:id="rId2"/>
+    <sheet name="Folha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
   <si>
     <t>Simão</t>
   </si>
@@ -48,13 +50,274 @@
   </si>
   <si>
     <t>GOOG</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>John Classe</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Civil</t>
+  </si>
+  <si>
+    <t>Civil Engineer</t>
+  </si>
+  <si>
+    <t>https://www.acec.org/</t>
+  </si>
+  <si>
+    <t>Scott Aaronson</t>
+  </si>
+  <si>
+    <t>Investigator</t>
+  </si>
+  <si>
+    <t>Quantum Computing</t>
+  </si>
+  <si>
+    <t>University Professor</t>
+  </si>
+  <si>
+    <t>https://scottaaronson.blog/</t>
+  </si>
+  <si>
+    <t>Robert Citrone</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Hedge Fund Manager</t>
+  </si>
+  <si>
+    <t>Discovery Capital Management</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Gary Stevenson</t>
+  </si>
+  <si>
+    <t>Trader</t>
+  </si>
+  <si>
+    <t>Gary Economics</t>
+  </si>
+  <si>
+    <t>Tudor Jones</t>
+  </si>
+  <si>
+    <t>Bill Ackman</t>
+  </si>
+  <si>
+    <t>Michael Bury</t>
+  </si>
+  <si>
+    <t>Martin Shkreli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Cohen </t>
+  </si>
+  <si>
+    <t>Benjamin Granham</t>
+  </si>
+  <si>
+    <t>Jim Simons</t>
+  </si>
+  <si>
+    <t>José Neves</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Presidente do Cluster/Engenheiro agência de defesa</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jensen Hunag </t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Peter Thiel</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>John Carmack</t>
+  </si>
+  <si>
+    <t>Jeff Benzos</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>Larry Ellinson</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>Mike Bloomberg</t>
+  </si>
+  <si>
+    <t>Phil Knight</t>
+  </si>
+  <si>
+    <t>Tom Peterffy</t>
+  </si>
+  <si>
+    <t>IBRK</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>Founder</t>
+  </si>
+  <si>
+    <t>EX-CEO</t>
+  </si>
+  <si>
+    <t>BNB</t>
+  </si>
+  <si>
+    <t>Ma Huateng</t>
+  </si>
+  <si>
+    <t>Jeff Yass</t>
+  </si>
+  <si>
+    <t>Jan Koum</t>
+  </si>
+  <si>
+    <t>Ray Dalio</t>
+  </si>
+  <si>
+    <t>Henry (Dr. Nick)</t>
+  </si>
+  <si>
+    <t>Leon Black</t>
+  </si>
+  <si>
+    <t>Izzy</t>
+  </si>
+  <si>
+    <t>Brian Armstrong</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>GDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO-Founder </t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>Benioff</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Tiger Club</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Brian Pinsker</t>
+  </si>
+  <si>
+    <t>Jamie Dimon</t>
+  </si>
+  <si>
+    <t>Bruce Flatt</t>
+  </si>
+  <si>
+    <t>Phillip Fisher</t>
+  </si>
+  <si>
+    <t>George Hotz</t>
+  </si>
+  <si>
+    <t>Programing</t>
+  </si>
+  <si>
+    <t>AI/Autopilot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEO </t>
+  </si>
+  <si>
+    <t>OpenPilot</t>
+  </si>
+  <si>
+    <t>Ken Griffin</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>Paul Singer</t>
+  </si>
+  <si>
+    <t>Richard Feynman</t>
+  </si>
+  <si>
+    <t>fisico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +328,35 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -86,17 +378,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{69D2CAE1-5E81-41E3-8EFB-E87975E5D8E8}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,16 +675,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -397,7 +695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -407,17 +705,17 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -425,4 +723,573 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9747F11-0FC2-4490-ABA7-A60F7C60BF95}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{43D879B5-CA4B-4383-8494-8CCC725EA416}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{E77D8B1F-FD48-485E-9FD5-6DE0587830CF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A9FD1B-F22D-4B8D-80B4-49CC8E78D9D6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>